--- a/Decoration.xlsx
+++ b/Decoration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="8807"/>
+    <workbookView windowWidth="22188" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,87 @@
   </si>
   <si>
     <t>https:Q~~~QQ~~~Qm.media-amazon.comQ~~~QimagesQ~~~QIQ~~~Q81z1Uc0LKbL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>ayudha pooja thoranam</t>
+  </si>
+  <si>
+    <t>elai thoranam vasal maa elai</t>
+  </si>
+  <si>
+    <t>birthday caps</t>
+  </si>
+  <si>
+    <t>sparkle candle</t>
+  </si>
+  <si>
+    <t>sadhana mala</t>
+  </si>
+  <si>
+    <t>kridam round</t>
+  </si>
+  <si>
+    <t>kridam plastic</t>
+  </si>
+  <si>
+    <t>lotus cake candle</t>
+  </si>
+  <si>
+    <t>snow spray</t>
+  </si>
+  <si>
+    <t>popper small medium large</t>
+  </si>
+  <si>
+    <t>ruppe note popper</t>
+  </si>
+  <si>
+    <t>pettal poper</t>
+  </si>
+  <si>
+    <t>ribbon spray</t>
+  </si>
+  <si>
+    <t>colour smoke</t>
+  </si>
+  <si>
+    <t>gift packing sheet</t>
+  </si>
+  <si>
+    <t>paper 10rs gift sheet</t>
+  </si>
+  <si>
+    <t>book binding gift paper</t>
+  </si>
+  <si>
+    <t>battery serial light</t>
+  </si>
+  <si>
+    <t>packing bow</t>
+  </si>
+  <si>
+    <t>birthday return gift cover</t>
+  </si>
+  <si>
+    <t>birthday cake cutting birthday cover</t>
+  </si>
+  <si>
+    <t>birthday candles</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>thermacol star gold silver</t>
+  </si>
+  <si>
+    <t>thermacol dove</t>
+  </si>
+  <si>
+    <t>thermacol valamaram</t>
+  </si>
+  <si>
+    <t>thermacol happy birthday</t>
   </si>
 </sst>
 </file>
@@ -81,13 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -109,6 +183,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -439,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -459,6 +539,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,28 +658,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,34 +691,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,17 +803,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,15 +1143,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="4.44444444444444" customWidth="1"/>
     <col min="2" max="2" width="39.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1060,7 +1165,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1084,19 +1189,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1109,6 +1214,141 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+    </row>
+    <row r="3" ht="15.15" spans="3:3">
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="53.55" spans="3:3">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="27.15" spans="3:3">
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="27.15" spans="3:3">
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="3:3">
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="27.15" spans="3:3">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="27.15" spans="3:3">
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="27.15" spans="3:3">
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="53.55" spans="3:3">
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="40.35" spans="3:3">
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="27.15" spans="3:3">
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="27.15" spans="3:3">
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="27.15" spans="3:3">
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="40.35" spans="3:3">
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="40.35" spans="3:3">
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="40.35" spans="3:3">
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="3:3">
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" ht="27.15" spans="3:3">
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="3:3">
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="40.35" spans="3:3">
+      <c r="C26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" ht="27.15" spans="3:3">
+      <c r="C27" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="40.35" spans="3:3">
+      <c r="C28" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" ht="40.35" spans="3:3">
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
